--- a/normalizing.xlsx
+++ b/normalizing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>level1</t>
   </si>
@@ -57,6 +57,27 @@
   </si>
   <si>
     <t>Labor productivity</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>1.54</t>
   </si>
 </sst>
 </file>
@@ -80,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -115,13 +142,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +480,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,8 +504,12 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
@@ -481,18 +518,26 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
@@ -501,8 +546,12 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
@@ -511,18 +560,26 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
@@ -531,8 +588,12 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>

--- a/normalizing.xlsx
+++ b/normalizing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15400" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -84,11 +84,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -96,7 +96,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +165,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -176,15 +182,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>21754</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>135349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -201,14 +207,205 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4914900" y="0"/>
-          <a:ext cx="7912099" cy="5787554"/>
+          <a:off x="5422900" y="25400"/>
+          <a:ext cx="6921500" cy="5062949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="5040184"/>
+          <a:ext cx="9436099" cy="3278315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5511800" y="4368800"/>
+          <a:ext cx="6540500" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5524500" y="3327400"/>
+          <a:ext cx="6540500" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5537200" y="2463800"/>
+          <a:ext cx="6540500" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -480,7 +677,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,6 +796,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
